--- a/data/trans_orig/Q17F_D_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.29534575597989</v>
+        <v>10.0958542319621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.994771871967421</v>
+        <v>6.984733505939994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.986246812899656</v>
+        <v>7.636073580083631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21.2603716317982</v>
+        <v>22.31620476822085</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.125836280439794</v>
+        <v>9.133719896803317</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.413760652212605</v>
+        <v>7.232364785571825</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.05479195357123</v>
+        <v>9.71946429072052</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.61074839783703</v>
+        <v>16.2291483552219</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.49734871373139</v>
+        <v>10.52680490731278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.801495925590832</v>
+        <v>7.708012105178467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10.04226900144641</v>
+        <v>10.32026334035425</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>20.18515158957639</v>
+        <v>19.90247202481673</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>33.64285710790551</v>
+        <v>35.65686877456684</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.50033868269605</v>
+        <v>14.21379689217726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.80176791067661</v>
+        <v>17.23272011796663</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56.3631114112181</v>
+        <v>55.77535338924561</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.35830203271628</v>
+        <v>19.21857448941402</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.07699682333934</v>
+        <v>13.92256805696415</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>21.62934170620674</v>
+        <v>20.89098120857075</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>28.35195806968218</v>
+        <v>29.27648893218876</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.74281010429296</v>
+        <v>20.01198525926278</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12.76902568151172</v>
+        <v>12.6096372684915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.48697957351535</v>
+        <v>18.44743293833338</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>35.09346300330508</v>
+        <v>34.23102054178571</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>10.60517250414308</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26.96618246826926</v>
+        <v>26.96618246826927</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.252916765574583</v>
@@ -817,7 +817,7 @@
         <v>15.64225912741847</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>22.56461965440391</v>
+        <v>22.56461965440392</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>7.699404575876971</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.155867339693534</v>
+        <v>5.858410433889759</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.443184074378507</v>
+        <v>9.590250794016544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.976147972146943</v>
+        <v>6.968494577488185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.06098170632034</v>
+        <v>17.75966619530973</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.274559056087853</v>
+        <v>5.406433286998595</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.552708279133219</v>
+        <v>6.63983654212333</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.60205169327296</v>
+        <v>10.48450631516069</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>18.01630355372329</v>
+        <v>18.03438036656846</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.929798807583287</v>
+        <v>6.164705998258436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8.660574883419347</v>
+        <v>8.39519531910331</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.122795639762</v>
+        <v>10.23490341597824</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>19.65223322583145</v>
+        <v>19.25703978053925</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.72883567978048</v>
+        <v>11.95954607937344</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.34644378865238</v>
+        <v>18.83340991439701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.74020355105394</v>
+        <v>17.73281093395314</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47.00476050013844</v>
+        <v>44.06775976585397</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.850440388470252</v>
+        <v>9.873553258280467</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>13.93348042174929</v>
+        <v>14.18883160568742</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>26.96562743669473</v>
+        <v>28.12342178459068</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>30.19638622771005</v>
+        <v>29.37628017925962</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>9.712694412757438</v>
+        <v>9.609859807341117</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14.44888363116147</v>
+        <v>14.33218155604292</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20.47531215758563</v>
+        <v>20.14539695568709</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>31.72787817980804</v>
+        <v>32.14217071423911</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>5.856656264986617</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17.82783296479181</v>
+        <v>17.8278329647918</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7.391595793528614</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.079837247889928</v>
+        <v>6.25751871376952</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.607469215801418</v>
+        <v>6.460960945863184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.04705813265301</v>
+        <v>4.078059023416293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.36948039502174</v>
+        <v>11.1325277905697</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.971545425361557</v>
+        <v>5.209899127789082</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.74287660957873</v>
+        <v>6.559349198486691</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.099389841721806</v>
+        <v>6.172034227973046</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.77021146631113</v>
+        <v>16.84065467353045</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.271065443975515</v>
+        <v>6.0855872225696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.610178249308198</v>
+        <v>7.421568483345067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5.649882565295233</v>
+        <v>5.812110087668816</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.88187288158359</v>
+        <v>16.12228082405069</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.02834971401507</v>
+        <v>17.4705239762995</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.6165296526417</v>
+        <v>13.75100061072741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.977984201891793</v>
+        <v>9.103270965167003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37.00653934844404</v>
+        <v>38.73204616100418</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.56277627125408</v>
+        <v>12.62710170039304</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.88018724384113</v>
+        <v>17.66713573893881</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.3797246998541</v>
+        <v>15.90573563520451</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>30.04600431939574</v>
+        <v>31.10784514139167</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.27946440351309</v>
+        <v>12.27688063543125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14.1990042147507</v>
+        <v>14.12222735761963</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11.297803058341</v>
+        <v>11.54738551041735</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>28.95076590897097</v>
+        <v>29.63759097756307</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.276368920758433</v>
+        <v>5.095564205317966</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.191213988192732</v>
+        <v>2.160919546698065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.394020951665392</v>
+        <v>7.592202921667205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15.30516828778729</v>
+        <v>15.54168223441817</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.303568416889616</v>
+        <v>5.263968308265039</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.328817271480818</v>
+        <v>6.774851514552914</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.17400796018955</v>
+        <v>10.10400458523056</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.15093350422474</v>
+        <v>18.3314145189055</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.915301137854001</v>
+        <v>6.02669645243481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4.976034193746584</v>
+        <v>5.174899864125758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.846197123969663</v>
+        <v>10.008981082847</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>18.44208356748223</v>
+        <v>18.5483214618756</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.23428894363748</v>
+        <v>17.31216723011572</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.252903403406842</v>
+        <v>8.276624455705296</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.72439650037533</v>
+        <v>19.08309043280179</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29.70758536495439</v>
+        <v>29.94148869099772</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.69025859864989</v>
+        <v>18.72277934983328</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.69525875268278</v>
+        <v>19.62046867631753</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>28.785205275436</v>
+        <v>30.05932216251308</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>36.94554041139002</v>
+        <v>37.59332044652066</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>13.73858292976497</v>
+        <v>14.24328738948057</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12.39344974846287</v>
+        <v>12.77518772493667</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20.8616095121284</v>
+        <v>21.74613095394096</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>29.67660403358337</v>
+        <v>30.86932509694561</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>13.71921185017962</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>22.68548937307214</v>
+        <v>22.68548937307213</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>9.819675695721035</v>
@@ -1237,7 +1237,7 @@
         <v>12.11175444690987</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>23.20424186082168</v>
+        <v>23.20424186082167</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.287045545677939</v>
+        <v>8.185300868464278</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.140044296094466</v>
+        <v>8.18328616877004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.036313554808279</v>
+        <v>7.835933110118655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18.94003370030192</v>
+        <v>19.54941558913083</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.529043400540733</v>
+        <v>7.447606257609777</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.162485423315454</v>
+        <v>8.129644756602156</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.18698571413</v>
+        <v>11.077004394426</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>19.65917626159144</v>
+        <v>19.62892602573208</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.330489022407294</v>
+        <v>8.400852274069218</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8.646520277291804</v>
+        <v>8.771354682398536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10.2975728849098</v>
+        <v>10.43712119538613</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>20.6084094762887</v>
+        <v>20.5692606777691</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.85391396072333</v>
+        <v>14.05375976095706</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.09448176556928</v>
+        <v>12.36391109087091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.5804781079023</v>
+        <v>12.35404634016564</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31.04208724786076</v>
+        <v>32.29301966509434</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.51286627267547</v>
+        <v>11.56397756133415</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.16859539506799</v>
+        <v>12.41306711869229</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.12002486177882</v>
+        <v>17.86243864893287</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.29027774432306</v>
+        <v>26.40383615855544</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.7882465206533</v>
+        <v>11.77478885997241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11.48148212022182</v>
+        <v>11.60398541632452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14.50241517810017</v>
+        <v>14.66114670551002</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>26.55198521591297</v>
+        <v>26.82813961385721</v>
       </c>
     </row>
     <row r="19">
